--- a/history.xlsx
+++ b/history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,33 +492,64 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-01-23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Михайлов Г. А.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Орлов И. Ю.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Чистка полости рта</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>24-01-23</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Бабушкин В. А.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Орлов И. Ю.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Чистка полости рта</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>1000</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>все ок</t>
         </is>
